--- a/DFT_Calculations/3.get_properties/gp_openshell/temp/pyrdz_extracted_properties.xlsx
+++ b/DFT_Calculations/3.get_properties/gp_openshell/temp/pyrdz_extracted_properties.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>log_name</t>
   </si>
@@ -109,12 +109,6 @@
     <t>NBO_charge_C2</t>
   </si>
   <si>
-    <t>NMR_shift_C1</t>
-  </si>
-  <si>
-    <t>NMR_shift_C2</t>
-  </si>
-  <si>
     <t>distance_C1_C2(Å)</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
   </si>
   <si>
     <t>Sterimol_B5_C1_C2(Å)_morfeus</t>
-  </si>
-  <si>
-    <t>pyramidalization_Gavrish_C1(°)</t>
-  </si>
-  <si>
-    <t>pyramidalization_Agranat-Radhakrishnan_C1</t>
   </si>
   <si>
     <t>C1_C2_Bond_Order</t>
@@ -539,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:41">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,40 +654,28 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:41">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -708,7 +684,7 @@
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K2">
         <v>-302.930027</v>
@@ -776,61 +752,49 @@
       <c r="AF2">
         <v>0.02923</v>
       </c>
-      <c r="AG2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>55</v>
+      <c r="AG2">
+        <v>1.4073</v>
+      </c>
+      <c r="AH2">
+        <v>84.75594008264463</v>
       </c>
       <c r="AI2">
-        <v>1.4073</v>
+        <v>95.86131198347107</v>
       </c>
       <c r="AJ2">
-        <v>84.75594008264463</v>
+        <v>6.652500656206639</v>
       </c>
       <c r="AK2">
-        <v>95.86131198347107</v>
+        <v>1.700244724136831</v>
       </c>
       <c r="AL2">
-        <v>6.652500656206639</v>
-      </c>
-      <c r="AM2">
-        <v>1.700244724136831</v>
-      </c>
-      <c r="AN2">
         <v>3.261610894206323</v>
       </c>
-      <c r="AO2">
-        <v>0.001160842286618436</v>
-      </c>
-      <c r="AP2">
-        <v>0.0001747527194562766</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>55</v>
+      <c r="AM2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:41">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -845,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>-302.930289</v>
@@ -913,58 +877,46 @@
       <c r="AF3">
         <v>-0.15475</v>
       </c>
-      <c r="AG3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>55</v>
+      <c r="AG3">
+        <v>1.40238</v>
+      </c>
+      <c r="AH3">
+        <v>84.94963842975206</v>
       </c>
       <c r="AI3">
-        <v>1.40238</v>
+        <v>96.92019628099173</v>
       </c>
       <c r="AJ3">
-        <v>84.94963842975206</v>
+        <v>6.157302358756007</v>
       </c>
       <c r="AK3">
-        <v>96.92019628099173</v>
+        <v>1.700520320446981</v>
       </c>
       <c r="AL3">
-        <v>6.157302358756007</v>
-      </c>
-      <c r="AM3">
-        <v>1.700520320446981</v>
-      </c>
-      <c r="AN3">
         <v>3.270417371590462</v>
       </c>
-      <c r="AO3">
-        <v>0.006961068992791808</v>
-      </c>
-      <c r="AP3">
-        <v>0.001047528360166631</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>55</v>
+      <c r="AM3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:41">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -973,16 +925,16 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>-342.243845</v>
@@ -1050,44 +1002,32 @@
       <c r="AF4">
         <v>0.04263</v>
       </c>
-      <c r="AG4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>55</v>
+      <c r="AG4">
+        <v>1.41493</v>
+      </c>
+      <c r="AH4">
+        <v>92.03576962809917</v>
       </c>
       <c r="AI4">
-        <v>1.41493</v>
+        <v>95.85162706611571</v>
       </c>
       <c r="AJ4">
-        <v>92.03576962809917</v>
+        <v>6.671774505645</v>
       </c>
       <c r="AK4">
-        <v>95.85162706611571</v>
+        <v>1.834770074063358</v>
       </c>
       <c r="AL4">
-        <v>6.671774505645</v>
-      </c>
-      <c r="AM4">
-        <v>1.834770074063358</v>
-      </c>
-      <c r="AN4">
         <v>3.26672542274073</v>
       </c>
-      <c r="AO4">
-        <v>0.003600500541489074</v>
-      </c>
-      <c r="AP4">
-        <v>0.000540466035491132</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>55</v>
+      <c r="AM4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
